--- a/src/test/java/TestData/API_List (1).xlsx
+++ b/src/test/java/TestData/API_List (1).xlsx
@@ -3,27 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6EF9514E-80DD-430C-910A-0935C508DACE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Core_Java\TAXI_BOOKING_RestAssured\src\test\java\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A140D49C-2DC3-422C-843D-DF42331A5C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14470" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Query_Parm" sheetId="1" r:id="rId1"/>
+    <sheet name="Get_JsonResponse" sheetId="2" r:id="rId2"/>
+    <sheet name="Post_Req" sheetId="3" r:id="rId3"/>
+    <sheet name="Patch_Req" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Key</t>
   </si>
@@ -31,79 +31,55 @@
     <t>Values</t>
   </si>
   <si>
-    <t>https://reqres.in/api/users/2</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/login</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>peter@klaven</t>
-  </si>
-  <si>
-    <t>cityslicka</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/users</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>morpheus</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>zion resident</t>
-  </si>
-  <si>
-    <t>job1</t>
-  </si>
-  <si>
-    <t>leader1</t>
-  </si>
-  <si>
-    <t>http://alnaseej.php-dev.in/customapi/customer/login</t>
-  </si>
-  <si>
-    <t>prakashneosoftqa@gmail.com</t>
-  </si>
-  <si>
-    <t>Bug@12345</t>
-  </si>
-  <si>
-    <t>social_type</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/users</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Umesh</t>
-  </si>
-  <si>
-    <t>Rathod</t>
+    <t>q</t>
+  </si>
+  <si>
+    <t>London,UK</t>
+  </si>
+  <si>
+    <t>appid</t>
+  </si>
+  <si>
+    <t>2b1fd2d7f77ccf1b7de9b441571b39b8</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>notificationId</t>
+  </si>
+  <si>
+    <t>notificationStatus</t>
+  </si>
+  <si>
+    <t>shortDesc</t>
+  </si>
+  <si>
+    <t>longDesc</t>
+  </si>
+  <si>
+    <t>createdBy</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Pbhosale</t>
+  </si>
+  <si>
+    <t>Get Notification User for Taxi</t>
+  </si>
+  <si>
+    <t>Get Notification User for Taxi and Booking Ride</t>
+  </si>
+  <si>
+    <t>13333ace-b8bd-4319-a45a-22e9545f29c9</t>
+  </si>
+  <si>
+    <t>Admin12</t>
+  </si>
+  <si>
+    <t>Admin123</t>
   </si>
 </sst>
 </file>
@@ -117,17 +93,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -168,6 +133,18 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -180,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,36 +165,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,149 +608,93 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C16" s="9"/>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D2" r:id="rId4" display="pbhosale@gmail" xr:uid="{ED9E8001-D3E8-4A87-A814-8B24BF249FDD}"/>
-    <hyperlink ref="D3" r:id="rId5" display="admin@123" xr:uid="{6DE927EA-D188-4AA0-9A6B-92523EBD1218}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{42927F73-DCC6-4D51-BA62-DBDE757AB641}"/>
-    <hyperlink ref="A2" r:id="rId7" xr:uid="{8CAB1DDE-B8B1-4DAE-AD7B-55DFECADAAB9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -713,52 +703,255 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="39.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B5" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0551401-394D-415A-AC53-C7789C67DA93}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Admin@12" xr:uid="{A663F151-7670-4913-92D1-E2900CA688ED}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE7AF6A-85FD-4F61-B0FC-C1E3E316E178}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/TestData/API_List (1).xlsx
+++ b/src/test/java/TestData/API_List (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Core_Java\TAXI_BOOKING_RestAssured\src\test\java\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Core_Java\taxi-booking-api-automation\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A140D49C-2DC3-422C-843D-DF42331A5C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9A8EF-0E9E-4008-B999-2C74468E9064}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
